--- a/src/test/resources/com/zohocrm/excel/testdata.xlsx
+++ b/src/test/resources/com/zohocrm/excel/testdata.xlsx
@@ -4,41 +4,54 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="LoginTest" sheetId="1" r:id="rId2"/>
+    <sheet name="CreateAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ridertest2018@gmail.com</t>
+  </si>
+  <si>
+    <t>vtest2018@</t>
+  </si>
+  <si>
+    <t>accountsname</t>
+  </si>
+  <si>
+    <t>testaccounts</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
   <si>
     <t>LoginTest</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Runmode</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>CreateAccountTest</t>
   </si>
   <si>
     <t>runmode</t>
   </si>
   <si>
-    <t>ridertest2018@gmail.com</t>
-  </si>
-  <si>
-    <t>testpass2021@</t>
+    <t>y</t>
   </si>
   <si>
     <t>TCID</t>
@@ -386,6 +399,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -394,71 +494,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>